--- a/data/phenodata.xlsx
+++ b/data/phenodata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/EURACrypt2018/VAMS_vs_intraveinous/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jo/Projects/git/EuracBiomedicalResearch/VAMS_vs_intraveinous/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCD2F8E-2E9F-B14B-AFC5-9313620767B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8D8C12-0926-2547-95A3-3407B3057FA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39000" yWindow="1180" windowWidth="27700" windowHeight="17060" xr2:uid="{AF5D3A4B-1D04-3546-9CCC-520DADB23E87}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="18640" windowHeight="17980" xr2:uid="{AF5D3A4B-1D04-3546-9CCC-520DADB23E87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,16 @@
   <definedNames>
     <definedName name="phenodata" localSheetId="0">Sheet1!$A$1:$G$301</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="429">
   <si>
     <t>mzML_file</t>
   </si>
@@ -1315,6 +1321,24 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>sampling_date</t>
+  </si>
+  <si>
+    <t>2017-12-11</t>
+  </si>
+  <si>
+    <t>2017-12-12</t>
+  </si>
+  <si>
+    <t>2017-12-18</t>
+  </si>
+  <si>
+    <t>2017-12-19</t>
+  </si>
+  <si>
+    <t>2017-12-20</t>
   </si>
 </sst>
 </file>
@@ -1671,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E0DDF9-28BC-8141-A8BA-BE4B1230EAB8}">
-  <dimension ref="A1:I401"/>
+  <dimension ref="A1:J401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="I398" sqref="I398"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1685,9 +1709,10 @@
     <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1715,8 +1740,11 @@
       <c r="I1" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>200</v>
       </c>
@@ -1739,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>159</v>
       </c>
@@ -1767,8 +1795,11 @@
       <c r="I3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>139</v>
       </c>
@@ -1796,8 +1827,11 @@
       <c r="I4" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -1825,8 +1859,11 @@
       <c r="I5" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>177</v>
       </c>
@@ -1854,8 +1891,11 @@
       <c r="I6" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>180</v>
       </c>
@@ -1883,8 +1923,11 @@
       <c r="I7" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>188</v>
       </c>
@@ -1912,8 +1955,11 @@
       <c r="I8" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>136</v>
       </c>
@@ -1941,8 +1987,11 @@
       <c r="I9" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>163</v>
       </c>
@@ -1970,8 +2019,11 @@
       <c r="I10" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>201</v>
       </c>
@@ -1994,7 +2046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>138</v>
       </c>
@@ -2022,8 +2074,11 @@
       <c r="I12" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -2051,8 +2106,11 @@
       <c r="I13" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>108</v>
       </c>
@@ -2080,8 +2138,11 @@
       <c r="I14" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>182</v>
       </c>
@@ -2109,8 +2170,11 @@
       <c r="I15" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>185</v>
       </c>
@@ -2138,8 +2202,11 @@
       <c r="I16" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>172</v>
       </c>
@@ -2167,8 +2234,11 @@
       <c r="I17" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
@@ -2196,8 +2266,11 @@
       <c r="I18" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>119</v>
       </c>
@@ -2225,8 +2298,11 @@
       <c r="I19" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>202</v>
       </c>
@@ -2249,7 +2325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>194</v>
       </c>
@@ -2277,8 +2353,11 @@
       <c r="I21" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>117</v>
       </c>
@@ -2306,8 +2385,11 @@
       <c r="I22" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>169</v>
       </c>
@@ -2335,8 +2417,11 @@
       <c r="I23" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>144</v>
       </c>
@@ -2364,8 +2449,11 @@
       <c r="I24" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>148</v>
       </c>
@@ -2393,8 +2481,11 @@
       <c r="I25" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>151</v>
       </c>
@@ -2422,8 +2513,11 @@
       <c r="I26" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -2451,8 +2545,11 @@
       <c r="I27" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>176</v>
       </c>
@@ -2480,8 +2577,11 @@
       <c r="I28" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>203</v>
       </c>
@@ -2504,7 +2604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>186</v>
       </c>
@@ -2532,8 +2632,11 @@
       <c r="I30" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>167</v>
       </c>
@@ -2561,8 +2664,11 @@
       <c r="I31" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>165</v>
       </c>
@@ -2590,8 +2696,11 @@
       <c r="I32" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>120</v>
       </c>
@@ -2619,8 +2728,11 @@
       <c r="I33" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>178</v>
       </c>
@@ -2648,8 +2760,11 @@
       <c r="I34" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>152</v>
       </c>
@@ -2677,8 +2792,11 @@
       <c r="I35" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>131</v>
       </c>
@@ -2706,8 +2824,11 @@
       <c r="I36" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>129</v>
       </c>
@@ -2735,8 +2856,11 @@
       <c r="I37" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>204</v>
       </c>
@@ -2759,7 +2883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>164</v>
       </c>
@@ -2787,8 +2911,11 @@
       <c r="I39" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>195</v>
       </c>
@@ -2816,8 +2943,11 @@
       <c r="I40" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>147</v>
       </c>
@@ -2845,8 +2975,11 @@
       <c r="I41" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>126</v>
       </c>
@@ -2874,8 +3007,11 @@
       <c r="I42" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>118</v>
       </c>
@@ -2903,8 +3039,11 @@
       <c r="I43" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>193</v>
       </c>
@@ -2932,8 +3071,11 @@
       <c r="I44" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>141</v>
       </c>
@@ -2961,8 +3103,11 @@
       <c r="I45" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -2990,8 +3135,11 @@
       <c r="I46" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>205</v>
       </c>
@@ -3014,7 +3162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>162</v>
       </c>
@@ -3042,8 +3190,11 @@
       <c r="I48" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>168</v>
       </c>
@@ -3071,8 +3222,11 @@
       <c r="I49" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>181</v>
       </c>
@@ -3100,8 +3254,11 @@
       <c r="I50" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>160</v>
       </c>
@@ -3129,8 +3286,11 @@
       <c r="I51" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>130</v>
       </c>
@@ -3158,8 +3318,11 @@
       <c r="I52" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
@@ -3187,8 +3350,11 @@
       <c r="I53" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>155</v>
       </c>
@@ -3216,8 +3382,11 @@
       <c r="I54" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>114</v>
       </c>
@@ -3245,8 +3414,11 @@
       <c r="I55" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>206</v>
       </c>
@@ -3269,7 +3441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>187</v>
       </c>
@@ -3297,8 +3469,11 @@
       <c r="I57" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>173</v>
       </c>
@@ -3326,8 +3501,11 @@
       <c r="I58" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>166</v>
       </c>
@@ -3355,8 +3533,11 @@
       <c r="I59" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>149</v>
       </c>
@@ -3384,8 +3565,11 @@
       <c r="I60" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>158</v>
       </c>
@@ -3413,8 +3597,11 @@
       <c r="I61" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>125</v>
       </c>
@@ -3442,8 +3629,11 @@
       <c r="I62" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>184</v>
       </c>
@@ -3471,8 +3661,11 @@
       <c r="I63" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>171</v>
       </c>
@@ -3500,8 +3693,11 @@
       <c r="I64" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>207</v>
       </c>
@@ -3524,7 +3720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
@@ -3552,8 +3748,11 @@
       <c r="I66" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>170</v>
       </c>
@@ -3581,8 +3780,11 @@
       <c r="I67" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>113</v>
       </c>
@@ -3610,8 +3812,11 @@
       <c r="I68" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>142</v>
       </c>
@@ -3639,8 +3844,11 @@
       <c r="I69" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>175</v>
       </c>
@@ -3668,8 +3876,11 @@
       <c r="I70" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>174</v>
       </c>
@@ -3697,8 +3908,11 @@
       <c r="I71" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>191</v>
       </c>
@@ -3726,8 +3940,11 @@
       <c r="I72" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>128</v>
       </c>
@@ -3755,8 +3972,11 @@
       <c r="I73" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>208</v>
       </c>
@@ -3779,7 +3999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>196</v>
       </c>
@@ -3807,8 +4027,11 @@
       <c r="I75" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -3836,8 +4059,11 @@
       <c r="I76" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>153</v>
       </c>
@@ -3865,8 +4091,11 @@
       <c r="I77" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>156</v>
       </c>
@@ -3894,8 +4123,11 @@
       <c r="I78" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>122</v>
       </c>
@@ -3923,8 +4155,11 @@
       <c r="I79" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>189</v>
       </c>
@@ -3952,8 +4187,11 @@
       <c r="I80" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>132</v>
       </c>
@@ -3981,8 +4219,11 @@
       <c r="I81" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>140</v>
       </c>
@@ -4010,8 +4251,11 @@
       <c r="I82" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>197</v>
       </c>
@@ -4034,7 +4278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>124</v>
       </c>
@@ -4062,8 +4306,11 @@
       <c r="I84" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>134</v>
       </c>
@@ -4091,8 +4338,11 @@
       <c r="I85" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>116</v>
       </c>
@@ -4120,8 +4370,11 @@
       <c r="I86" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>135</v>
       </c>
@@ -4149,8 +4402,11 @@
       <c r="I87" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>161</v>
       </c>
@@ -4178,8 +4434,11 @@
       <c r="I88" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>154</v>
       </c>
@@ -4207,8 +4466,11 @@
       <c r="I89" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>123</v>
       </c>
@@ -4236,8 +4498,11 @@
       <c r="I90" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>143</v>
       </c>
@@ -4265,8 +4530,11 @@
       <c r="I91" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>198</v>
       </c>
@@ -4289,7 +4557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>190</v>
       </c>
@@ -4317,8 +4585,11 @@
       <c r="I93" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>179</v>
       </c>
@@ -4346,8 +4617,11 @@
       <c r="I94" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>146</v>
       </c>
@@ -4375,8 +4649,11 @@
       <c r="I95" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>133</v>
       </c>
@@ -4404,8 +4681,11 @@
       <c r="I96" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>145</v>
       </c>
@@ -4433,8 +4713,11 @@
       <c r="I97" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>192</v>
       </c>
@@ -4462,8 +4745,11 @@
       <c r="I98" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>183</v>
       </c>
@@ -4491,8 +4777,11 @@
       <c r="I99" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>157</v>
       </c>
@@ -4520,8 +4809,11 @@
       <c r="I100" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>199</v>
       </c>
@@ -4544,7 +4836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
@@ -4567,7 +4859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -4595,8 +4887,11 @@
       <c r="I103" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>88</v>
       </c>
@@ -4624,8 +4919,11 @@
       <c r="I104" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>38</v>
       </c>
@@ -4653,8 +4951,11 @@
       <c r="I105" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>49</v>
       </c>
@@ -4682,8 +4983,11 @@
       <c r="I106" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>76</v>
       </c>
@@ -4711,8 +5015,11 @@
       <c r="I107" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>63</v>
       </c>
@@ -4740,8 +5047,11 @@
       <c r="I108" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
@@ -4769,8 +5079,11 @@
       <c r="I109" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -4798,8 +5111,11 @@
       <c r="I110" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>100</v>
       </c>
@@ -4822,7 +5138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>52</v>
       </c>
@@ -4850,8 +5166,11 @@
       <c r="I112" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J112" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>39</v>
       </c>
@@ -4879,8 +5198,11 @@
       <c r="I113" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J113" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>69</v>
       </c>
@@ -4908,8 +5230,11 @@
       <c r="I114" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J114" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>35</v>
       </c>
@@ -4937,8 +5262,11 @@
       <c r="I115" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J115" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>92</v>
       </c>
@@ -4966,8 +5294,11 @@
       <c r="I116" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J116" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>78</v>
       </c>
@@ -4995,8 +5326,11 @@
       <c r="I117" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J117" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>26</v>
       </c>
@@ -5024,8 +5358,11 @@
       <c r="I118" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>73</v>
       </c>
@@ -5053,8 +5390,11 @@
       <c r="I119" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J119" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>101</v>
       </c>
@@ -5077,7 +5417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>80</v>
       </c>
@@ -5105,8 +5445,11 @@
       <c r="I121" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>30</v>
       </c>
@@ -5134,8 +5477,11 @@
       <c r="I122" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>25</v>
       </c>
@@ -5163,8 +5509,11 @@
       <c r="I123" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>65</v>
       </c>
@@ -5192,8 +5541,11 @@
       <c r="I124" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J124" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>91</v>
       </c>
@@ -5221,8 +5573,11 @@
       <c r="I125" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>53</v>
       </c>
@@ -5250,8 +5605,11 @@
       <c r="I126" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>84</v>
       </c>
@@ -5279,8 +5637,11 @@
       <c r="I127" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J127" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>89</v>
       </c>
@@ -5308,8 +5669,11 @@
       <c r="I128" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>102</v>
       </c>
@@ -5332,7 +5696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -5360,8 +5724,11 @@
       <c r="I130" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J130" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>19</v>
       </c>
@@ -5389,8 +5756,11 @@
       <c r="I131" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>27</v>
       </c>
@@ -5418,8 +5788,11 @@
       <c r="I132" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J132" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>85</v>
       </c>
@@ -5447,8 +5820,11 @@
       <c r="I133" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J133" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
@@ -5476,8 +5852,11 @@
       <c r="I134" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J134" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>66</v>
       </c>
@@ -5505,8 +5884,11 @@
       <c r="I135" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>58</v>
       </c>
@@ -5534,8 +5916,11 @@
       <c r="I136" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>28</v>
       </c>
@@ -5563,8 +5948,11 @@
       <c r="I137" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>103</v>
       </c>
@@ -5587,7 +5975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +6003,11 @@
       <c r="I139" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>86</v>
       </c>
@@ -5644,8 +6035,11 @@
       <c r="I140" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J140" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>42</v>
       </c>
@@ -5673,8 +6067,11 @@
       <c r="I141" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J141" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>55</v>
       </c>
@@ -5702,8 +6099,11 @@
       <c r="I142" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>24</v>
       </c>
@@ -5731,8 +6131,11 @@
       <c r="I143" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>41</v>
       </c>
@@ -5760,8 +6163,11 @@
       <c r="I144" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>70</v>
       </c>
@@ -5789,8 +6195,11 @@
       <c r="I145" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>82</v>
       </c>
@@ -5818,8 +6227,11 @@
       <c r="I146" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>104</v>
       </c>
@@ -5842,7 +6254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>93</v>
       </c>
@@ -5870,8 +6282,11 @@
       <c r="I148" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>31</v>
       </c>
@@ -5899,8 +6314,11 @@
       <c r="I149" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>61</v>
       </c>
@@ -5928,8 +6346,11 @@
       <c r="I150" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>20</v>
       </c>
@@ -5957,8 +6378,11 @@
       <c r="I151" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>37</v>
       </c>
@@ -5986,8 +6410,11 @@
       <c r="I152" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>47</v>
       </c>
@@ -6015,8 +6442,11 @@
       <c r="I153" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>72</v>
       </c>
@@ -6044,8 +6474,11 @@
       <c r="I154" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>51</v>
       </c>
@@ -6073,8 +6506,11 @@
       <c r="I155" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>105</v>
       </c>
@@ -6097,7 +6533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>17</v>
       </c>
@@ -6125,8 +6561,11 @@
       <c r="I157" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J157" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>68</v>
       </c>
@@ -6154,8 +6593,11 @@
       <c r="I158" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J158" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>15</v>
       </c>
@@ -6183,8 +6625,11 @@
       <c r="I159" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J159" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>90</v>
       </c>
@@ -6212,8 +6657,11 @@
       <c r="I160" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>40</v>
       </c>
@@ -6241,8 +6689,11 @@
       <c r="I161" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J161" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>48</v>
       </c>
@@ -6270,8 +6721,11 @@
       <c r="I162" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>33</v>
       </c>
@@ -6299,8 +6753,11 @@
       <c r="I163" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J163" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>74</v>
       </c>
@@ -6328,8 +6785,11 @@
       <c r="I164" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J164" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>106</v>
       </c>
@@ -6352,7 +6812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>36</v>
       </c>
@@ -6380,8 +6840,11 @@
       <c r="I166" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J166" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>13</v>
       </c>
@@ -6409,8 +6872,11 @@
       <c r="I167" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J167" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>77</v>
       </c>
@@ -6438,8 +6904,11 @@
       <c r="I168" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J168" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>22</v>
       </c>
@@ -6467,8 +6936,11 @@
       <c r="I169" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J169" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>12</v>
       </c>
@@ -6496,8 +6968,11 @@
       <c r="I170" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J170" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>67</v>
       </c>
@@ -6525,8 +7000,11 @@
       <c r="I171" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>87</v>
       </c>
@@ -6554,8 +7032,11 @@
       <c r="I172" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J172" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>14</v>
       </c>
@@ -6583,8 +7064,11 @@
       <c r="I173" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J173" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>107</v>
       </c>
@@ -6607,7 +7091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>23</v>
       </c>
@@ -6635,8 +7119,11 @@
       <c r="I175" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J175" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>9</v>
       </c>
@@ -6664,8 +7151,11 @@
       <c r="I176" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>10</v>
       </c>
@@ -6693,8 +7183,11 @@
       <c r="I177" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>54</v>
       </c>
@@ -6722,8 +7215,11 @@
       <c r="I178" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J178" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>95</v>
       </c>
@@ -6751,8 +7247,11 @@
       <c r="I179" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J179" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>18</v>
       </c>
@@ -6780,8 +7279,11 @@
       <c r="I180" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J180" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>6</v>
       </c>
@@ -6809,8 +7311,11 @@
       <c r="I181" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J181" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>79</v>
       </c>
@@ -6838,8 +7343,11 @@
       <c r="I182" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J182" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>96</v>
       </c>
@@ -6862,7 +7370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>46</v>
       </c>
@@ -6890,8 +7398,11 @@
       <c r="I184" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J184" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>34</v>
       </c>
@@ -6919,8 +7430,11 @@
       <c r="I185" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J185" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>50</v>
       </c>
@@ -6948,8 +7462,11 @@
       <c r="I186" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J186" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>62</v>
       </c>
@@ -6977,8 +7494,11 @@
       <c r="I187" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J187" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>94</v>
       </c>
@@ -7006,8 +7526,11 @@
       <c r="I188" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J188" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>60</v>
       </c>
@@ -7035,8 +7558,11 @@
       <c r="I189" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J189" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>59</v>
       </c>
@@ -7064,8 +7590,11 @@
       <c r="I190" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J190" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>81</v>
       </c>
@@ -7093,8 +7622,11 @@
       <c r="I191" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J191" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>97</v>
       </c>
@@ -7117,7 +7649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>44</v>
       </c>
@@ -7145,8 +7677,11 @@
       <c r="I193" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J193" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>83</v>
       </c>
@@ -7174,8 +7709,11 @@
       <c r="I194" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J194" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>29</v>
       </c>
@@ -7203,8 +7741,11 @@
       <c r="I195" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J195" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>43</v>
       </c>
@@ -7232,8 +7773,11 @@
       <c r="I196" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J196" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>64</v>
       </c>
@@ -7261,8 +7805,11 @@
       <c r="I197" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J197" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>16</v>
       </c>
@@ -7290,8 +7837,11 @@
       <c r="I198" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J198" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>57</v>
       </c>
@@ -7319,8 +7869,11 @@
       <c r="I199" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J199" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>75</v>
       </c>
@@ -7348,8 +7901,11 @@
       <c r="I200" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J200" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>98</v>
       </c>
@@ -7372,7 +7928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>302</v>
       </c>
@@ -7395,7 +7951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>261</v>
       </c>
@@ -7423,8 +7979,11 @@
       <c r="I203" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J203" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>241</v>
       </c>
@@ -7452,8 +8011,11 @@
       <c r="I204" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J204" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>213</v>
       </c>
@@ -7481,8 +8043,11 @@
       <c r="I205" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J205" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>279</v>
       </c>
@@ -7510,8 +8075,11 @@
       <c r="I206" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J206" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>282</v>
       </c>
@@ -7539,8 +8107,11 @@
       <c r="I207" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J207" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>290</v>
       </c>
@@ -7568,8 +8139,11 @@
       <c r="I208" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J208" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>238</v>
       </c>
@@ -7597,8 +8171,11 @@
       <c r="I209" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J209" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>265</v>
       </c>
@@ -7626,8 +8203,11 @@
       <c r="I210" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J210" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>303</v>
       </c>
@@ -7650,7 +8230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>240</v>
       </c>
@@ -7678,8 +8258,11 @@
       <c r="I212" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J212" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
@@ -7707,8 +8290,11 @@
       <c r="I213" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J213" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>209</v>
       </c>
@@ -7736,8 +8322,11 @@
       <c r="I214" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J214" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>284</v>
       </c>
@@ -7765,8 +8354,11 @@
       <c r="I215" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J215" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>287</v>
       </c>
@@ -7794,8 +8386,11 @@
       <c r="I216" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J216" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>274</v>
       </c>
@@ -7823,8 +8418,11 @@
       <c r="I217" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J217" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
@@ -7852,8 +8450,11 @@
       <c r="I218" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J218" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
@@ -7881,8 +8482,11 @@
       <c r="I219" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J219" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>304</v>
       </c>
@@ -7905,7 +8509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>296</v>
       </c>
@@ -7933,8 +8537,11 @@
       <c r="I221" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J221" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>219</v>
       </c>
@@ -7962,8 +8569,11 @@
       <c r="I222" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J222" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>271</v>
       </c>
@@ -7991,8 +8601,11 @@
       <c r="I223" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J223" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>246</v>
       </c>
@@ -8020,8 +8633,11 @@
       <c r="I224" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J224" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>250</v>
       </c>
@@ -8049,8 +8665,11 @@
       <c r="I225" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J225" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>253</v>
       </c>
@@ -8078,8 +8697,11 @@
       <c r="I226" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J226" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>223</v>
       </c>
@@ -8107,8 +8729,11 @@
       <c r="I227" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J227" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>278</v>
       </c>
@@ -8136,8 +8761,11 @@
       <c r="I228" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J228" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>305</v>
       </c>
@@ -8160,7 +8788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>288</v>
       </c>
@@ -8188,8 +8816,11 @@
       <c r="I230" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J230" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>269</v>
       </c>
@@ -8217,8 +8848,11 @@
       <c r="I231" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J231" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>267</v>
       </c>
@@ -8246,8 +8880,11 @@
       <c r="I232" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J232" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>222</v>
       </c>
@@ -8275,8 +8912,11 @@
       <c r="I233" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J233" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>280</v>
       </c>
@@ -8304,8 +8944,11 @@
       <c r="I234" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J234" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>254</v>
       </c>
@@ -8333,8 +8976,11 @@
       <c r="I235" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J235" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>233</v>
       </c>
@@ -8362,8 +9008,11 @@
       <c r="I236" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J236" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>231</v>
       </c>
@@ -8391,8 +9040,11 @@
       <c r="I237" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J237" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>306</v>
       </c>
@@ -8415,7 +9067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>266</v>
       </c>
@@ -8443,8 +9095,11 @@
       <c r="I239" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J239" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>297</v>
       </c>
@@ -8472,8 +9127,11 @@
       <c r="I240" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J240" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>249</v>
       </c>
@@ -8501,8 +9159,11 @@
       <c r="I241" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J241" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>228</v>
       </c>
@@ -8530,8 +9191,11 @@
       <c r="I242" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J242" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>220</v>
       </c>
@@ -8559,8 +9223,11 @@
       <c r="I243" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J243" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>295</v>
       </c>
@@ -8588,8 +9255,11 @@
       <c r="I244" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J244" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>243</v>
       </c>
@@ -8617,8 +9287,11 @@
       <c r="I245" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J245" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>239</v>
       </c>
@@ -8646,8 +9319,11 @@
       <c r="I246" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J246" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>307</v>
       </c>
@@ -8670,7 +9346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>264</v>
       </c>
@@ -8698,8 +9374,11 @@
       <c r="I248" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J248" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>270</v>
       </c>
@@ -8727,8 +9406,11 @@
       <c r="I249" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J249" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>283</v>
       </c>
@@ -8756,8 +9438,11 @@
       <c r="I250" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J250" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>262</v>
       </c>
@@ -8785,8 +9470,11 @@
       <c r="I251" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J251" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>232</v>
       </c>
@@ -8814,8 +9502,11 @@
       <c r="I252" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J252" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>214</v>
       </c>
@@ -8843,8 +9534,11 @@
       <c r="I253" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J253" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
@@ -8872,8 +9566,11 @@
       <c r="I254" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J254" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>216</v>
       </c>
@@ -8901,8 +9598,11 @@
       <c r="I255" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J255" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>308</v>
       </c>
@@ -8925,7 +9625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>289</v>
       </c>
@@ -8953,8 +9653,11 @@
       <c r="I257" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J257" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>275</v>
       </c>
@@ -8982,8 +9685,11 @@
       <c r="I258" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J258" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>268</v>
       </c>
@@ -9011,8 +9717,11 @@
       <c r="I259" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J259" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>251</v>
       </c>
@@ -9040,8 +9749,11 @@
       <c r="I260" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J260" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>260</v>
       </c>
@@ -9069,8 +9781,11 @@
       <c r="I261" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J261" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>227</v>
       </c>
@@ -9098,8 +9813,11 @@
       <c r="I262" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J262" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>286</v>
       </c>
@@ -9127,8 +9845,11 @@
       <c r="I263" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J263" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>273</v>
       </c>
@@ -9156,8 +9877,11 @@
       <c r="I264" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J264" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>309</v>
       </c>
@@ -9180,7 +9904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>229</v>
       </c>
@@ -9208,8 +9932,11 @@
       <c r="I266" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J266" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>272</v>
       </c>
@@ -9237,8 +9964,11 @@
       <c r="I267" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J267" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>215</v>
       </c>
@@ -9266,8 +9996,11 @@
       <c r="I268" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J268" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>244</v>
       </c>
@@ -9295,8 +10028,11 @@
       <c r="I269" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J269" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>277</v>
       </c>
@@ -9324,8 +10060,11 @@
       <c r="I270" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J270" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>276</v>
       </c>
@@ -9353,8 +10092,11 @@
       <c r="I271" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J271" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>293</v>
       </c>
@@ -9382,8 +10124,11 @@
       <c r="I272" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J272" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>230</v>
       </c>
@@ -9411,8 +10156,11 @@
       <c r="I273" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J273" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>310</v>
       </c>
@@ -9435,7 +10183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>298</v>
       </c>
@@ -9463,8 +10211,11 @@
       <c r="I275" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J275" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>252</v>
       </c>
@@ -9492,8 +10243,11 @@
       <c r="I276" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J276" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>255</v>
       </c>
@@ -9521,8 +10275,11 @@
       <c r="I277" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J277" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>258</v>
       </c>
@@ -9550,8 +10307,11 @@
       <c r="I278" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J278" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>224</v>
       </c>
@@ -9579,8 +10339,11 @@
       <c r="I279" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J279" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>291</v>
       </c>
@@ -9608,8 +10371,11 @@
       <c r="I280" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J280" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>234</v>
       </c>
@@ -9637,8 +10403,11 @@
       <c r="I281" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J281" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>242</v>
       </c>
@@ -9666,8 +10435,11 @@
       <c r="I282" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J282" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>299</v>
       </c>
@@ -9690,7 +10462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>226</v>
       </c>
@@ -9718,8 +10490,11 @@
       <c r="I284" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J284" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>236</v>
       </c>
@@ -9747,8 +10522,11 @@
       <c r="I285" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J285" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>218</v>
       </c>
@@ -9776,8 +10554,11 @@
       <c r="I286" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J286" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>237</v>
       </c>
@@ -9805,8 +10586,11 @@
       <c r="I287" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J287" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>263</v>
       </c>
@@ -9834,8 +10618,11 @@
       <c r="I288" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J288" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>256</v>
       </c>
@@ -9863,8 +10650,11 @@
       <c r="I289" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J289" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>225</v>
       </c>
@@ -9892,8 +10682,11 @@
       <c r="I290" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J290" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>245</v>
       </c>
@@ -9921,8 +10714,11 @@
       <c r="I291" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J291" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>300</v>
       </c>
@@ -9945,7 +10741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>292</v>
       </c>
@@ -9973,8 +10769,11 @@
       <c r="I293" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J293" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>281</v>
       </c>
@@ -10002,8 +10801,11 @@
       <c r="I294" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J294" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>248</v>
       </c>
@@ -10031,8 +10833,11 @@
       <c r="I295" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J295" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>235</v>
       </c>
@@ -10060,8 +10865,11 @@
       <c r="I296" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J296" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>247</v>
       </c>
@@ -10089,8 +10897,11 @@
       <c r="I297" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J297" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>294</v>
       </c>
@@ -10118,8 +10929,11 @@
       <c r="I298" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J298" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>285</v>
       </c>
@@ -10147,8 +10961,11 @@
       <c r="I299" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J299" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>259</v>
       </c>
@@ -10176,8 +10993,11 @@
       <c r="I300" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J300" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>301</v>
       </c>
@@ -10200,7 +11020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>403</v>
       </c>
@@ -10223,7 +11043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>315</v>
       </c>
@@ -10251,8 +11071,11 @@
       <c r="I303" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J303" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>392</v>
       </c>
@@ -10280,8 +11103,11 @@
       <c r="I304" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J304" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>342</v>
       </c>
@@ -10309,8 +11135,11 @@
       <c r="I305" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J305" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>353</v>
       </c>
@@ -10338,8 +11167,11 @@
       <c r="I306" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J306" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>380</v>
       </c>
@@ -10367,8 +11199,11 @@
       <c r="I307" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J307" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>367</v>
       </c>
@@ -10396,8 +11231,11 @@
       <c r="I308" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J308" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>325</v>
       </c>
@@ -10425,8 +11263,11 @@
       <c r="I309" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J309" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>336</v>
       </c>
@@ -10454,8 +11295,11 @@
       <c r="I310" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J310" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>404</v>
       </c>
@@ -10478,7 +11322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>356</v>
       </c>
@@ -10506,8 +11350,11 @@
       <c r="I312" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J312" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>343</v>
       </c>
@@ -10535,8 +11382,11 @@
       <c r="I313" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J313" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>373</v>
       </c>
@@ -10564,8 +11414,11 @@
       <c r="I314" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J314" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>339</v>
       </c>
@@ -10593,8 +11446,11 @@
       <c r="I315" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J315" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>396</v>
       </c>
@@ -10622,8 +11478,11 @@
       <c r="I316" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J316" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>382</v>
       </c>
@@ -10651,8 +11510,11 @@
       <c r="I317" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J317" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>330</v>
       </c>
@@ -10680,8 +11542,11 @@
       <c r="I318" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J318" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>377</v>
       </c>
@@ -10709,8 +11574,11 @@
       <c r="I319" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J319" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>405</v>
       </c>
@@ -10733,7 +11601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>384</v>
       </c>
@@ -10761,8 +11629,11 @@
       <c r="I321" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J321" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>334</v>
       </c>
@@ -10790,8 +11661,11 @@
       <c r="I322" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J322" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>329</v>
       </c>
@@ -10819,8 +11693,11 @@
       <c r="I323" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J323" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>369</v>
       </c>
@@ -10848,8 +11725,11 @@
       <c r="I324" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J324" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>395</v>
       </c>
@@ -10877,8 +11757,11 @@
       <c r="I325" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J325" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>357</v>
       </c>
@@ -10906,8 +11789,11 @@
       <c r="I326" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J326" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>388</v>
       </c>
@@ -10935,8 +11821,11 @@
       <c r="I327" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J327" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>393</v>
       </c>
@@ -10964,8 +11853,11 @@
       <c r="I328" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J328" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>406</v>
       </c>
@@ -10988,7 +11880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>360</v>
       </c>
@@ -11016,8 +11908,11 @@
       <c r="I330" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J330" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>323</v>
       </c>
@@ -11045,8 +11940,11 @@
       <c r="I331" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J331" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>331</v>
       </c>
@@ -11074,8 +11972,11 @@
       <c r="I332" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J332" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>389</v>
       </c>
@@ -11103,8 +12004,11 @@
       <c r="I333" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J333" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>349</v>
       </c>
@@ -11132,8 +12036,11 @@
       <c r="I334" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J334" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>370</v>
       </c>
@@ -11161,8 +12068,11 @@
       <c r="I335" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J335" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>362</v>
       </c>
@@ -11190,8 +12100,11 @@
       <c r="I336" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J336" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>332</v>
       </c>
@@ -11219,8 +12132,11 @@
       <c r="I337" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J337" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>407</v>
       </c>
@@ -11243,7 +12159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>375</v>
       </c>
@@ -11271,8 +12187,11 @@
       <c r="I339" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J339" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>390</v>
       </c>
@@ -11300,8 +12219,11 @@
       <c r="I340" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J340" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>346</v>
       </c>
@@ -11329,8 +12251,11 @@
       <c r="I341" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J341" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>359</v>
       </c>
@@ -11358,8 +12283,11 @@
       <c r="I342" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J342" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>328</v>
       </c>
@@ -11387,8 +12315,11 @@
       <c r="I343" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J343" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>345</v>
       </c>
@@ -11416,8 +12347,11 @@
       <c r="I344" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J344" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>374</v>
       </c>
@@ -11445,8 +12379,11 @@
       <c r="I345" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J345" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>386</v>
       </c>
@@ -11474,8 +12411,11 @@
       <c r="I346" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J346" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>408</v>
       </c>
@@ -11498,7 +12438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>397</v>
       </c>
@@ -11526,8 +12466,11 @@
       <c r="I348" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J348" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>335</v>
       </c>
@@ -11555,8 +12498,11 @@
       <c r="I349" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J349" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>365</v>
       </c>
@@ -11584,8 +12530,11 @@
       <c r="I350" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J350" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>324</v>
       </c>
@@ -11613,8 +12562,11 @@
       <c r="I351" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J351" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>341</v>
       </c>
@@ -11642,8 +12594,11 @@
       <c r="I352" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J352" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>351</v>
       </c>
@@ -11671,8 +12626,11 @@
       <c r="I353" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J353" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>376</v>
       </c>
@@ -11700,8 +12658,11 @@
       <c r="I354" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J354" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>355</v>
       </c>
@@ -11729,8 +12690,11 @@
       <c r="I355" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J355" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>409</v>
       </c>
@@ -11753,7 +12717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>321</v>
       </c>
@@ -11781,8 +12745,11 @@
       <c r="I357" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J357" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>372</v>
       </c>
@@ -11810,8 +12777,11 @@
       <c r="I358" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J358" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>319</v>
       </c>
@@ -11839,8 +12809,11 @@
       <c r="I359" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J359" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>394</v>
       </c>
@@ -11868,8 +12841,11 @@
       <c r="I360" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J360" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>344</v>
       </c>
@@ -11897,8 +12873,11 @@
       <c r="I361" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J361" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>352</v>
       </c>
@@ -11926,8 +12905,11 @@
       <c r="I362" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J362" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>337</v>
       </c>
@@ -11955,8 +12937,11 @@
       <c r="I363" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J363" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>378</v>
       </c>
@@ -11984,8 +12969,11 @@
       <c r="I364" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J364" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>410</v>
       </c>
@@ -12008,7 +12996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>340</v>
       </c>
@@ -12036,8 +13024,11 @@
       <c r="I366" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J366" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>317</v>
       </c>
@@ -12065,8 +13056,11 @@
       <c r="I367" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J367" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>381</v>
       </c>
@@ -12094,8 +13088,11 @@
       <c r="I368" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J368" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>326</v>
       </c>
@@ -12123,8 +13120,11 @@
       <c r="I369" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J369" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>316</v>
       </c>
@@ -12152,8 +13152,11 @@
       <c r="I370" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J370" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>371</v>
       </c>
@@ -12181,8 +13184,11 @@
       <c r="I371" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J371" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>391</v>
       </c>
@@ -12210,8 +13216,11 @@
       <c r="I372" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J372" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>318</v>
       </c>
@@ -12239,8 +13248,11 @@
       <c r="I373" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J373" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>411</v>
       </c>
@@ -12263,7 +13275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>327</v>
       </c>
@@ -12291,8 +13303,11 @@
       <c r="I375" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J375" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>313</v>
       </c>
@@ -12320,8 +13335,11 @@
       <c r="I376" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J376" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>314</v>
       </c>
@@ -12349,8 +13367,11 @@
       <c r="I377" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J377" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>358</v>
       </c>
@@ -12378,8 +13399,11 @@
       <c r="I378" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J378" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>399</v>
       </c>
@@ -12407,8 +13431,11 @@
       <c r="I379" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J379" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>322</v>
       </c>
@@ -12436,8 +13463,11 @@
       <c r="I380" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J380" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>311</v>
       </c>
@@ -12465,8 +13495,11 @@
       <c r="I381" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J381" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>383</v>
       </c>
@@ -12494,8 +13527,11 @@
       <c r="I382" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J382" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>400</v>
       </c>
@@ -12518,7 +13554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>350</v>
       </c>
@@ -12546,8 +13582,11 @@
       <c r="I384" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J384" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>338</v>
       </c>
@@ -12575,8 +13614,11 @@
       <c r="I385" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J385" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>354</v>
       </c>
@@ -12604,8 +13646,11 @@
       <c r="I386" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J386" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>366</v>
       </c>
@@ -12633,8 +13678,11 @@
       <c r="I387" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J387" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>398</v>
       </c>
@@ -12662,8 +13710,11 @@
       <c r="I388" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J388" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>364</v>
       </c>
@@ -12691,8 +13742,11 @@
       <c r="I389" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J389" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>363</v>
       </c>
@@ -12720,8 +13774,11 @@
       <c r="I390" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J390" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>385</v>
       </c>
@@ -12749,8 +13806,11 @@
       <c r="I391" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J391" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>401</v>
       </c>
@@ -12773,7 +13833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>348</v>
       </c>
@@ -12801,8 +13861,11 @@
       <c r="I393" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J393" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>387</v>
       </c>
@@ -12830,8 +13893,11 @@
       <c r="I394" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J394" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>333</v>
       </c>
@@ -12859,8 +13925,11 @@
       <c r="I395" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J395" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>347</v>
       </c>
@@ -12888,8 +13957,11 @@
       <c r="I396" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J396" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>368</v>
       </c>
@@ -12917,8 +13989,11 @@
       <c r="I397" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J397" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>320</v>
       </c>
@@ -12946,8 +14021,11 @@
       <c r="I398" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J398" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>361</v>
       </c>
@@ -12975,8 +14053,11 @@
       <c r="I399" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J399" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>379</v>
       </c>
@@ -13003,6 +14084,9 @@
       </c>
       <c r="I400" t="s">
         <v>422</v>
+      </c>
+      <c r="J400" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
@@ -13029,7 +14113,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H304">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H304">
     <sortCondition descending="1" ref="D2:D304"/>
     <sortCondition descending="1" ref="C2:C304"/>
     <sortCondition ref="B2:B304"/>
